--- a/GridSearchResults/Hyperparameters_NTSK-RLS_Nonlinear.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-RLS_Nonlinear.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -490,17 +490,19 @@
       <c r="D2" t="n">
         <v>0.2</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7067391899304556</v>
+        <v>0.706743346563334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6449017986283835</v>
+        <v>0.6449055915693407</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5879203745945489</v>
+        <v>0.5879232502272569</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -521,17 +523,19 @@
       <c r="D3" t="n">
         <v>0.4</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6772034710681347</v>
+        <v>0.6772034483415389</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6179503595551274</v>
+        <v>0.6179503388170352</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4994116428431518</v>
+        <v>0.4994116277870033</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -552,17 +556,19 @@
       <c r="D4" t="n">
         <v>0.6</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>0.6433792482563797</v>
+        <v>0.6433792482569667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.587085646745506</v>
+        <v>0.5870856467460416</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4419407946610058</v>
+        <v>0.4419407946614844</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -583,17 +589,19 @@
       <c r="D5" t="n">
         <v>0.8</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>0.07297556577200129</v>
+        <v>0.07297556577197656</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06659043999939854</v>
+        <v>0.06659043999937597</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06416105955446215</v>
+        <v>0.06416105955444051</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -614,17 +622,19 @@
       <c r="D6" t="n">
         <v>0.9</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>0.04652094794186835</v>
+        <v>0.04652094794186699</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04245051559198307</v>
+        <v>0.04245051559198183</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03632379677429638</v>
+        <v>0.03632379677429636</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -645,17 +655,19 @@
       <c r="D7" t="n">
         <v>0.91</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>0.04609559993322728</v>
+        <v>0.04609559993322777</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04206238415718516</v>
+        <v>0.04206238415718561</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03583260967931542</v>
+        <v>0.03583260967931559</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -676,17 +688,19 @@
       <c r="D8" t="n">
         <v>0.92</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>0.04576221002271413</v>
+        <v>0.04576221002271383</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04175816478461061</v>
+        <v>0.04175816478461034</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03534115031537365</v>
+        <v>0.03534115031537344</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -707,17 +721,19 @@
       <c r="D9" t="n">
         <v>0.93</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0454987522798538</v>
+        <v>0.04549875227985394</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04151775874139978</v>
+        <v>0.04151775874139992</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03489693720560411</v>
+        <v>0.03489693720560434</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -738,17 +754,19 @@
       <c r="D10" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0452895178786865</v>
+        <v>0.04528951787868621</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04132683167301265</v>
+        <v>0.04132683167301238</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03448736321811945</v>
+        <v>0.03448736321811946</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -769,17 +787,19 @@
       <c r="D11" t="n">
         <v>0.95</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>0.04512342619218191</v>
+        <v>0.04512342619218241</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04117527247141443</v>
+        <v>0.04117527247141489</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0340707379407957</v>
+        <v>0.03407073794079594</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -800,17 +820,19 @@
       <c r="D12" t="n">
         <v>0.96</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>0.04499288425335148</v>
+        <v>0.04499288425335137</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04105615252964855</v>
+        <v>0.04105615252964845</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03370464516948392</v>
+        <v>0.03370464516948388</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -831,17 +853,19 @@
       <c r="D13" t="n">
         <v>0.97</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0448930433170872</v>
+        <v>0.04489304331708718</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04096504735210786</v>
+        <v>0.04096504735210784</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03338685953756339</v>
+        <v>0.03338685953756324</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -862,17 +886,19 @@
       <c r="D14" t="n">
         <v>0.98</v>
       </c>
-      <c r="E14" t="n">
-        <v>1</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>0.04482133512792254</v>
+        <v>0.04482133512792257</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04089961339736534</v>
+        <v>0.04089961339736536</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03306429629208994</v>
+        <v>0.03306429629208981</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -893,17 +919,19 @@
       <c r="D15" t="n">
         <v>0.99</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>0.04477719633850791</v>
+        <v>0.04477719633850795</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04085933660914086</v>
+        <v>0.04085933660914089</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03278703734953008</v>
+        <v>0.03278703734952997</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -924,17 +952,19 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>0.04476192591403196</v>
+        <v>0.04476192591403198</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04084540229737398</v>
+        <v>0.040845402297374</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03250659174605387</v>
+        <v>0.0325065917460539</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
